--- a/Code/Results/Cases/Case_5_159/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_159/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.170918000456481</v>
+        <v>0.9168783282299557</v>
       </c>
       <c r="C2">
-        <v>0.0917380517946782</v>
+        <v>0.1103637748559478</v>
       </c>
       <c r="D2">
-        <v>0.08489989512507634</v>
+        <v>0.1212360588839161</v>
       </c>
       <c r="E2">
-        <v>0.05881527903272143</v>
+        <v>0.1322696356982007</v>
       </c>
       <c r="F2">
-        <v>0.907430997432904</v>
+        <v>1.940048721761215</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02672462365074526</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06774919842809979</v>
+        <v>0.1762184897145787</v>
       </c>
       <c r="K2">
-        <v>0.9326285682001298</v>
+        <v>0.478284596782089</v>
       </c>
       <c r="L2">
-        <v>0.1912270643657408</v>
+        <v>0.2631712867810023</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.066185737269105</v>
+        <v>2.252590438682958</v>
       </c>
       <c r="O2">
-        <v>2.339239215908748</v>
+        <v>5.132683292418534</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02636761252657</v>
+        <v>0.8797396025435944</v>
       </c>
       <c r="C3">
-        <v>0.0888464358112202</v>
+        <v>0.1093442579306725</v>
       </c>
       <c r="D3">
-        <v>0.07655745486878374</v>
+        <v>0.119489934097345</v>
       </c>
       <c r="E3">
-        <v>0.05657089546071958</v>
+        <v>0.1323217267412389</v>
       </c>
       <c r="F3">
-        <v>0.8889590093757249</v>
+        <v>1.946675811283775</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06817788280045178</v>
+        <v>0.1771558591426476</v>
       </c>
       <c r="K3">
-        <v>0.8108481822839906</v>
+        <v>0.4443327767251333</v>
       </c>
       <c r="L3">
-        <v>0.1725189714552116</v>
+        <v>0.2593479686275444</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.113035164764016</v>
+        <v>2.272981447585809</v>
       </c>
       <c r="O3">
-        <v>2.316550827710756</v>
+        <v>5.157466130098101</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.938112245935173</v>
+        <v>0.8572861856528391</v>
       </c>
       <c r="C4">
-        <v>0.08707254589342739</v>
+        <v>0.1087140804762328</v>
       </c>
       <c r="D4">
-        <v>0.07148563882475401</v>
+        <v>0.1184611853797151</v>
       </c>
       <c r="E4">
-        <v>0.05525134865490777</v>
+        <v>0.13239750608839</v>
       </c>
       <c r="F4">
-        <v>0.8789534959729437</v>
+        <v>1.951551618945011</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06851672586408952</v>
+        <v>0.1777840706764486</v>
       </c>
       <c r="K4">
-        <v>0.7362934289640179</v>
+        <v>0.4236228971695937</v>
       </c>
       <c r="L4">
-        <v>0.161169881218413</v>
+        <v>0.2571021721292723</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.142984569141434</v>
+        <v>2.286138749727508</v>
       </c>
       <c r="O4">
-        <v>2.30630059419002</v>
+        <v>5.17483604580633</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9022592488946373</v>
+        <v>0.8482249817101319</v>
       </c>
       <c r="C5">
-        <v>0.08634988291468915</v>
+        <v>0.1084562410397041</v>
       </c>
       <c r="D5">
-        <v>0.06943079542647723</v>
+        <v>0.1180529336918283</v>
       </c>
       <c r="E5">
-        <v>0.05472786695150411</v>
+        <v>0.1324394302075298</v>
       </c>
       <c r="F5">
-        <v>0.8751998592084576</v>
+        <v>1.953741668300538</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06867339348226409</v>
+        <v>0.1780533363988273</v>
       </c>
       <c r="K5">
-        <v>0.7059562616920374</v>
+        <v>0.4152183855656517</v>
       </c>
       <c r="L5">
-        <v>0.1565774793043246</v>
+        <v>0.2562126944636702</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.155481129502152</v>
+        <v>2.291660731319653</v>
       </c>
       <c r="O5">
-        <v>2.303015633627737</v>
+        <v>5.182456355751626</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8963122493083233</v>
+        <v>0.8467257580251157</v>
       </c>
       <c r="C6">
-        <v>0.08622989292230443</v>
+        <v>0.1084133648533268</v>
       </c>
       <c r="D6">
-        <v>0.06909029211140449</v>
+        <v>0.1179858083541632</v>
       </c>
       <c r="E6">
-        <v>0.05464179021122284</v>
+        <v>0.1324470595754459</v>
       </c>
       <c r="F6">
-        <v>0.8745957703991394</v>
+        <v>1.954117599665921</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06870051834127366</v>
+        <v>0.1780988495502118</v>
       </c>
       <c r="K6">
-        <v>0.7009211883281097</v>
+        <v>0.4138249492640256</v>
       </c>
       <c r="L6">
-        <v>0.1558168119077052</v>
+        <v>0.2560665532878588</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.157573644069435</v>
+        <v>2.292587334124478</v>
       </c>
       <c r="O6">
-        <v>2.302523100832559</v>
+        <v>5.183754448296312</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9376282849242727</v>
+        <v>0.8571636227548538</v>
       </c>
       <c r="C7">
-        <v>0.08706279918542492</v>
+        <v>0.1087106073412869</v>
       </c>
       <c r="D7">
-        <v>0.07145787899000311</v>
+        <v>0.1184556350456418</v>
       </c>
       <c r="E7">
-        <v>0.05524423172773751</v>
+        <v>0.1323980267362312</v>
       </c>
       <c r="F7">
-        <v>0.8789015784089642</v>
+        <v>1.951580331961061</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06851876403861112</v>
+        <v>0.1777876483517176</v>
       </c>
       <c r="K7">
-        <v>0.7358841246709176</v>
+        <v>0.4235094087986226</v>
       </c>
       <c r="L7">
-        <v>0.161107817936724</v>
+        <v>0.2570900720931206</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.143151927433676</v>
+        <v>2.286212572078821</v>
       </c>
       <c r="O7">
-        <v>2.306252723036806</v>
+        <v>5.174936621062415</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.120964898894471</v>
+        <v>0.904000713041512</v>
       </c>
       <c r="C8">
-        <v>0.09074058008288688</v>
+        <v>0.1100131246874128</v>
       </c>
       <c r="D8">
-        <v>0.08201249276306299</v>
+        <v>0.1206250292396334</v>
       </c>
       <c r="E8">
-        <v>0.05802898118309585</v>
+        <v>0.1322785252058924</v>
       </c>
       <c r="F8">
-        <v>0.9007768800051394</v>
+        <v>1.942166452186058</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06788104637790227</v>
+        <v>0.1765307776214335</v>
       </c>
       <c r="K8">
-        <v>0.8905867054693317</v>
+        <v>0.4665499697962332</v>
       </c>
       <c r="L8">
-        <v>0.1847465629966933</v>
+        <v>0.2618319617224785</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.0820902420136</v>
+        <v>2.259489058073968</v>
       </c>
       <c r="O8">
-        <v>2.330631769470727</v>
+        <v>5.140781823717219</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.485120044347212</v>
+        <v>0.9985964627635724</v>
       </c>
       <c r="C9">
-        <v>0.09797452823603692</v>
+        <v>0.1125334978329988</v>
       </c>
       <c r="D9">
-        <v>0.1031462623387114</v>
+        <v>0.1252209016906392</v>
       </c>
       <c r="E9">
-        <v>0.06397669614285562</v>
+        <v>0.1323904215224907</v>
       </c>
       <c r="F9">
-        <v>0.9548659622490021</v>
+        <v>1.930096956476262</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06725102045136566</v>
+        <v>0.1744829630841593</v>
       </c>
       <c r="K9">
-        <v>1.196212625520275</v>
+        <v>0.5520164383819974</v>
       </c>
       <c r="L9">
-        <v>0.2323017536146779</v>
+        <v>0.271933434149048</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9720070442820727</v>
+        <v>2.212136269059181</v>
       </c>
       <c r="O9">
-        <v>2.409231607027436</v>
+        <v>5.090868847179252</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.756502550573316</v>
+        <v>1.06974152430513</v>
       </c>
       <c r="C10">
-        <v>0.1033171957806687</v>
+        <v>0.1143639177496993</v>
       </c>
       <c r="D10">
-        <v>0.1189929398183693</v>
+        <v>0.1288028934697252</v>
       </c>
       <c r="E10">
-        <v>0.06867669186516423</v>
+        <v>0.1326821564595591</v>
       </c>
       <c r="F10">
-        <v>1.002294101104411</v>
+        <v>1.925113754239973</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.06719641879480776</v>
+        <v>0.1732313271048405</v>
       </c>
       <c r="K10">
-        <v>1.422914198052581</v>
+        <v>0.6154363994872654</v>
       </c>
       <c r="L10">
-        <v>0.2681317813798074</v>
+        <v>0.2798391457279337</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8974026230107022</v>
+        <v>2.180420048271301</v>
       </c>
       <c r="O10">
-        <v>2.488088440363725</v>
+        <v>5.064577286381649</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.88103611332042</v>
+        <v>1.102458693753107</v>
       </c>
       <c r="C11">
-        <v>0.1057573498270727</v>
+        <v>0.1151918697636631</v>
       </c>
       <c r="D11">
-        <v>0.1262841428428345</v>
+        <v>0.1304764475679718</v>
       </c>
       <c r="E11">
-        <v>0.07089441526272466</v>
+        <v>0.1328600511805718</v>
       </c>
       <c r="F11">
-        <v>1.025744461040517</v>
+        <v>1.923687794362806</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06726729548402943</v>
+        <v>0.1727165747196011</v>
       </c>
       <c r="K11">
-        <v>1.52670232494242</v>
+        <v>0.6444200335887729</v>
       </c>
       <c r="L11">
-        <v>0.2846632294574789</v>
+        <v>0.2835397588262794</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.864916388434537</v>
+        <v>2.166657716816241</v>
       </c>
       <c r="O11">
-        <v>2.529098676193826</v>
+        <v>5.054865695375867</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.928370058057226</v>
+        <v>1.114897916969738</v>
       </c>
       <c r="C12">
-        <v>0.1066830903173823</v>
+        <v>0.1155047009853192</v>
       </c>
       <c r="D12">
-        <v>0.1290580843958367</v>
+        <v>0.1311164599157166</v>
       </c>
       <c r="E12">
-        <v>0.07174635359813664</v>
+        <v>0.1329338835726332</v>
       </c>
       <c r="F12">
-        <v>1.034912265026634</v>
+        <v>1.923268521099914</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.06730852618446548</v>
+        <v>0.1725294849773746</v>
       </c>
       <c r="K12">
-        <v>1.566115422319996</v>
+        <v>0.6554141001142</v>
       </c>
       <c r="L12">
-        <v>0.2909599496982906</v>
+        <v>0.2849559697561546</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8528317366296525</v>
+        <v>2.161541927891806</v>
       </c>
       <c r="O12">
-        <v>2.545416168253354</v>
+        <v>5.051511087788811</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.918167687327212</v>
+        <v>1.112216699417075</v>
       </c>
       <c r="C13">
-        <v>0.1064836344592734</v>
+        <v>0.1154373584393582</v>
       </c>
       <c r="D13">
-        <v>0.1284600741372941</v>
+        <v>0.1309783438316288</v>
       </c>
       <c r="E13">
-        <v>0.07156232249728944</v>
+        <v>0.1329176952743474</v>
       </c>
       <c r="F13">
-        <v>1.032924720862411</v>
+        <v>1.923353454085117</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.06729899594334299</v>
+        <v>0.1725694299009675</v>
       </c>
       <c r="K13">
-        <v>1.557621915531882</v>
+        <v>0.6530455140275251</v>
       </c>
       <c r="L13">
-        <v>0.2896021558971</v>
+        <v>0.2846503040648685</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8554245834433498</v>
+        <v>2.162639447867365</v>
       </c>
       <c r="O13">
-        <v>2.541866051744336</v>
+        <v>5.052219204819892</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.884926660283384</v>
+        <v>1.103481079871159</v>
       </c>
       <c r="C14">
-        <v>0.1058334749950376</v>
+        <v>0.1152176206345885</v>
       </c>
       <c r="D14">
-        <v>0.1265120913982827</v>
+        <v>0.1305289764119522</v>
       </c>
       <c r="E14">
-        <v>0.07096425751305446</v>
+        <v>0.1328659959672436</v>
       </c>
       <c r="F14">
-        <v>1.026492829153526</v>
+        <v>1.923650882597514</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.06727039540075808</v>
+        <v>0.1727010258002331</v>
       </c>
       <c r="K14">
-        <v>1.529942549286062</v>
+        <v>0.6453241529427203</v>
       </c>
       <c r="L14">
-        <v>0.2851805112315304</v>
+        <v>0.283655974064601</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.86391777402822</v>
+        <v>2.166234919632505</v>
       </c>
       <c r="O14">
-        <v>2.530425045140589</v>
+        <v>5.054583239344538</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.864589094813454</v>
+        <v>1.098136740470835</v>
       </c>
       <c r="C15">
-        <v>0.1054354653939811</v>
+        <v>0.1150829336747563</v>
       </c>
       <c r="D15">
-        <v>0.1253206111230156</v>
+        <v>0.1302545409574094</v>
       </c>
       <c r="E15">
-        <v>0.07059952656503654</v>
+        <v>0.1328351700292636</v>
       </c>
       <c r="F15">
-        <v>1.022591126962041</v>
+        <v>1.923848779300059</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.06725477020720305</v>
+        <v>0.1727826519830771</v>
       </c>
       <c r="K15">
-        <v>1.513003054300867</v>
+        <v>0.6405969994779639</v>
       </c>
       <c r="L15">
-        <v>0.2824769947336137</v>
+        <v>0.2830488509347759</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8691486411841574</v>
+        <v>2.168449713990833</v>
       </c>
       <c r="O15">
-        <v>2.523521202882591</v>
+        <v>5.056073326548159</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.74838744344126</v>
+        <v>1.067610412936375</v>
       </c>
       <c r="C16">
-        <v>0.1031579476199269</v>
+        <v>0.1143097126997148</v>
       </c>
       <c r="D16">
-        <v>0.118518191329045</v>
+        <v>0.1286944042891918</v>
       </c>
       <c r="E16">
-        <v>0.06853341862663243</v>
+        <v>0.1326714372757856</v>
       </c>
       <c r="F16">
-        <v>1.000800810808187</v>
+        <v>1.925223847051058</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.0671937656199546</v>
+        <v>0.1732660649201989</v>
       </c>
       <c r="K16">
-        <v>1.416146016484049</v>
+        <v>0.6135448861811312</v>
       </c>
       <c r="L16">
-        <v>0.2670563559584025</v>
+        <v>0.2795993894300608</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8995555949024538</v>
+        <v>2.181332841567282</v>
       </c>
       <c r="O16">
-        <v>2.485515826851497</v>
+        <v>5.065257176133031</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.677392293548451</v>
+        <v>1.048973316645146</v>
       </c>
       <c r="C17">
-        <v>0.101763469777552</v>
+        <v>0.1138341460382009</v>
       </c>
       <c r="D17">
-        <v>0.1143669844168187</v>
+        <v>0.1277485559645157</v>
       </c>
       <c r="E17">
-        <v>0.0672868034938503</v>
+        <v>0.1325825438171222</v>
       </c>
       <c r="F17">
-        <v>0.9879258719351043</v>
+        <v>1.926282632845414</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.06718129047307286</v>
+        <v>0.1735765998907759</v>
       </c>
       <c r="K17">
-        <v>1.356907424084966</v>
+        <v>0.5969830655719761</v>
       </c>
       <c r="L17">
-        <v>0.257657995037917</v>
+        <v>0.2775098730280803</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.918586918815179</v>
+        <v>2.189406684822844</v>
       </c>
       <c r="O17">
-        <v>2.463550547662351</v>
+        <v>5.071466812294716</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.636658139274829</v>
+        <v>1.038287019046777</v>
       </c>
       <c r="C18">
-        <v>0.1009623006731672</v>
+        <v>0.1135601699437743</v>
       </c>
       <c r="D18">
-        <v>0.1119870149714188</v>
+        <v>0.1272086827536896</v>
       </c>
       <c r="E18">
-        <v>0.06657723952425698</v>
+        <v>0.1325356692679698</v>
       </c>
       <c r="F18">
-        <v>0.9806958908469738</v>
+        <v>1.926970783114811</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.06718308443797838</v>
+        <v>0.1737603539015247</v>
       </c>
       <c r="K18">
-        <v>1.322896105735481</v>
+        <v>0.5874697539454985</v>
       </c>
       <c r="L18">
-        <v>0.2522739553052133</v>
+        <v>0.2763178598222282</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9296693373863896</v>
+        <v>2.194113188930384</v>
       </c>
       <c r="O18">
-        <v>2.451397183249185</v>
+        <v>5.075250099670086</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.622882894323425</v>
+        <v>1.034674560621227</v>
       </c>
       <c r="C19">
-        <v>0.1006911838850684</v>
+        <v>0.1134673308606651</v>
       </c>
       <c r="D19">
-        <v>0.1111824885522594</v>
+        <v>0.1270266063821595</v>
       </c>
       <c r="E19">
-        <v>0.06633825396458093</v>
+        <v>0.1325205299924548</v>
       </c>
       <c r="F19">
-        <v>0.978277528264428</v>
+        <v>1.927217382201761</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.06718521385142395</v>
+        <v>0.1738234536614875</v>
       </c>
       <c r="K19">
-        <v>1.311390496867688</v>
+        <v>0.584250894515975</v>
       </c>
       <c r="L19">
-        <v>0.2504546351797359</v>
+        <v>0.2759159552434909</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9334447818023595</v>
+        <v>2.195717489279043</v>
       </c>
       <c r="O19">
-        <v>2.447363345424577</v>
+        <v>5.076567421735035</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.68493931604948</v>
+        <v>1.050953830183204</v>
       </c>
       <c r="C20">
-        <v>0.101911819292404</v>
+        <v>0.1138848168735933</v>
       </c>
       <c r="D20">
-        <v>0.114808083597751</v>
+        <v>0.1278488137177476</v>
       </c>
       <c r="E20">
-        <v>0.06741873134862431</v>
+        <v>0.132591566556421</v>
       </c>
       <c r="F20">
-        <v>0.9892781568906486</v>
+        <v>1.926161731614314</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.06718168576069061</v>
+        <v>0.1735430108200298</v>
       </c>
       <c r="K20">
-        <v>1.363207033202286</v>
+        <v>0.5987447990603698</v>
       </c>
       <c r="L20">
-        <v>0.2586562032965531</v>
+        <v>0.2777312900413307</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.916546856256339</v>
+        <v>2.188540727086451</v>
       </c>
       <c r="O20">
-        <v>2.465838716265068</v>
+        <v>5.070783881746138</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.894685414956342</v>
+        <v>1.106045594144092</v>
       </c>
       <c r="C21">
-        <v>0.1060243936901912</v>
+        <v>0.1152821819946013</v>
       </c>
       <c r="D21">
-        <v>0.1270839016691809</v>
+        <v>0.130660796775274</v>
       </c>
       <c r="E21">
-        <v>0.07113958875381954</v>
+        <v>0.1328810060171293</v>
       </c>
       <c r="F21">
-        <v>1.028374075063468</v>
+        <v>1.923560246414453</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.0672784003009852</v>
+        <v>0.172662160383446</v>
       </c>
       <c r="K21">
-        <v>1.538069511800018</v>
+        <v>0.6475916041456742</v>
       </c>
       <c r="L21">
-        <v>0.2864782347809438</v>
+        <v>0.2839476303361721</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8614171539962099</v>
+        <v>2.16517624490422</v>
       </c>
       <c r="O21">
-        <v>2.533763758782214</v>
+        <v>5.053880103055377</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.032801756860636</v>
+        <v>1.142341966614083</v>
       </c>
       <c r="C22">
-        <v>0.1087223108838913</v>
+        <v>0.1161913742745426</v>
       </c>
       <c r="D22">
-        <v>0.1351827154426246</v>
+        <v>0.1325351277155562</v>
       </c>
       <c r="E22">
-        <v>0.07364245942675751</v>
+        <v>0.1331078553315663</v>
       </c>
       <c r="F22">
-        <v>1.055611458988935</v>
+        <v>1.922563496479924</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.06742581227980793</v>
+        <v>0.1721321381179273</v>
       </c>
       <c r="K22">
-        <v>1.653006154864585</v>
+        <v>0.679623905565137</v>
       </c>
       <c r="L22">
-        <v>0.3048766453628105</v>
+        <v>0.2880969787200769</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.8266569075213548</v>
+        <v>2.150464064510023</v>
       </c>
       <c r="O22">
-        <v>2.582773742926122</v>
+        <v>5.044714795463619</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.958984623068773</v>
+        <v>1.122943575962438</v>
       </c>
       <c r="C23">
-        <v>0.1072813483160573</v>
+        <v>0.1157064993367811</v>
       </c>
       <c r="D23">
-        <v>0.1308529163640202</v>
+        <v>0.1315314406662083</v>
       </c>
       <c r="E23">
-        <v>0.07229989171237605</v>
+        <v>0.1329833433204222</v>
       </c>
       <c r="F23">
-        <v>1.040913822048324</v>
+        <v>1.923031184679459</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.06733921326500791</v>
+        <v>0.1724108489036347</v>
       </c>
       <c r="K23">
-        <v>1.591596951626173</v>
+        <v>0.6625179763570372</v>
       </c>
       <c r="L23">
-        <v>0.2950362605772483</v>
+        <v>0.2858745095444846</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.8450899533052016</v>
+        <v>2.158265185841087</v>
       </c>
       <c r="O23">
-        <v>2.556176689022351</v>
+        <v>5.049434388540476</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.681527053595573</v>
+        <v>1.050058351434501</v>
       </c>
       <c r="C24">
-        <v>0.1018447488340186</v>
+        <v>0.11386191035335</v>
       </c>
       <c r="D24">
-        <v>0.1146086421343568</v>
+        <v>0.1278034750122004</v>
       </c>
       <c r="E24">
-        <v>0.06735906460267316</v>
+        <v>0.1325874741933752</v>
       </c>
       <c r="F24">
-        <v>0.9886662544927844</v>
+        <v>1.926216143593393</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.06718147917086981</v>
+        <v>0.1735581801672552</v>
       </c>
       <c r="K24">
-        <v>1.360358838640451</v>
+        <v>0.5979482934514806</v>
       </c>
       <c r="L24">
-        <v>0.2582048537709625</v>
+        <v>0.2776311585020892</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.9174687298096185</v>
+        <v>2.188932024902764</v>
       </c>
       <c r="O24">
-        <v>2.464802760112434</v>
+        <v>5.071091970246812</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.386009617416761</v>
+        <v>0.9727146670326192</v>
       </c>
       <c r="C25">
-        <v>0.09601378270760108</v>
+        <v>0.1118553630851693</v>
       </c>
       <c r="D25">
-        <v>0.0973769526055932</v>
+        <v>0.1239413156595432</v>
       </c>
       <c r="E25">
-        <v>0.06231222556618476</v>
+        <v>0.1323232439733708</v>
       </c>
       <c r="F25">
-        <v>0.9389489515586718</v>
+        <v>1.932679098916573</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.06735203600019091</v>
+        <v>0.1749924496055399</v>
       </c>
       <c r="K25">
-        <v>1.11321342316262</v>
+        <v>0.5287837424394013</v>
       </c>
       <c r="L25">
-        <v>0.2192924523118904</v>
+        <v>0.269115322535896</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.000715087436637</v>
+        <v>2.224406232196659</v>
       </c>
       <c r="O25">
-        <v>2.384438846531168</v>
+        <v>5.102547192352517</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_159/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_159/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9168783282299557</v>
+        <v>1.170918000456481</v>
       </c>
       <c r="C2">
-        <v>0.1103637748559478</v>
+        <v>0.09173805179500505</v>
       </c>
       <c r="D2">
-        <v>0.1212360588839161</v>
+        <v>0.08489989512512608</v>
       </c>
       <c r="E2">
-        <v>0.1322696356982007</v>
+        <v>0.05881527903272321</v>
       </c>
       <c r="F2">
-        <v>1.940048721761215</v>
+        <v>0.9074309974328827</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1762184897145787</v>
+        <v>0.06774919842810689</v>
       </c>
       <c r="K2">
-        <v>0.478284596782089</v>
+        <v>0.9326285681999593</v>
       </c>
       <c r="L2">
-        <v>0.2631712867810023</v>
+        <v>0.1912270643656981</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.252590438682958</v>
+        <v>1.066185737269107</v>
       </c>
       <c r="O2">
-        <v>5.132683292418534</v>
+        <v>2.339239215908691</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8797396025435944</v>
+        <v>1.026367612526656</v>
       </c>
       <c r="C3">
-        <v>0.1093442579306725</v>
+        <v>0.08884643581107099</v>
       </c>
       <c r="D3">
-        <v>0.119489934097345</v>
+        <v>0.07655745486890453</v>
       </c>
       <c r="E3">
-        <v>0.1323217267412389</v>
+        <v>0.05657089546071958</v>
       </c>
       <c r="F3">
-        <v>1.946675811283775</v>
+        <v>0.888959009375732</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1771558591426476</v>
+        <v>0.06817788280057613</v>
       </c>
       <c r="K3">
-        <v>0.4443327767251333</v>
+        <v>0.8108481822838769</v>
       </c>
       <c r="L3">
-        <v>0.2593479686275444</v>
+        <v>0.1725189714552258</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.272981447585809</v>
+        <v>1.11303516476403</v>
       </c>
       <c r="O3">
-        <v>5.157466130098101</v>
+        <v>2.316550827710756</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8572861856528391</v>
+        <v>0.9381122459348603</v>
       </c>
       <c r="C4">
-        <v>0.1087140804762328</v>
+        <v>0.08707254589343449</v>
       </c>
       <c r="D4">
-        <v>0.1184611853797151</v>
+        <v>0.07148563882464032</v>
       </c>
       <c r="E4">
-        <v>0.13239750608839</v>
+        <v>0.05525134865492198</v>
       </c>
       <c r="F4">
-        <v>1.951551618945011</v>
+        <v>0.8789534959729366</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1777840706764486</v>
+        <v>0.06851672586400781</v>
       </c>
       <c r="K4">
-        <v>0.4236228971695937</v>
+        <v>0.7362934289641601</v>
       </c>
       <c r="L4">
-        <v>0.2571021721292723</v>
+        <v>0.1611698812184201</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.286138749727508</v>
+        <v>1.142984569141435</v>
       </c>
       <c r="O4">
-        <v>5.17483604580633</v>
+        <v>2.306300594190049</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8482249817101319</v>
+        <v>0.9022592488944952</v>
       </c>
       <c r="C5">
-        <v>0.1084562410397041</v>
+        <v>0.08634988291468915</v>
       </c>
       <c r="D5">
-        <v>0.1180529336918283</v>
+        <v>0.06943079542647723</v>
       </c>
       <c r="E5">
-        <v>0.1324394302075298</v>
+        <v>0.05472786695150234</v>
       </c>
       <c r="F5">
-        <v>1.953741668300538</v>
+        <v>0.8751998592084433</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1780533363988273</v>
+        <v>0.06867339348224988</v>
       </c>
       <c r="K5">
-        <v>0.4152183855656517</v>
+        <v>0.7059562616919663</v>
       </c>
       <c r="L5">
-        <v>0.2562126944636702</v>
+        <v>0.1565774793042323</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.291660731319653</v>
+        <v>1.155481129502074</v>
       </c>
       <c r="O5">
-        <v>5.182456355751626</v>
+        <v>2.303015633627638</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8467257580251157</v>
+        <v>0.8963122493082381</v>
       </c>
       <c r="C6">
-        <v>0.1084133648533268</v>
+        <v>0.08622989292224048</v>
       </c>
       <c r="D6">
-        <v>0.1179858083541632</v>
+        <v>0.0690902921112837</v>
       </c>
       <c r="E6">
-        <v>0.1324470595754459</v>
+        <v>0.05464179021122284</v>
       </c>
       <c r="F6">
-        <v>1.954117599665921</v>
+        <v>0.8745957703991323</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1780988495502118</v>
+        <v>0.06870051834141755</v>
       </c>
       <c r="K6">
-        <v>0.4138249492640256</v>
+        <v>0.7009211883281665</v>
       </c>
       <c r="L6">
-        <v>0.2560665532878588</v>
+        <v>0.155816811907755</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.292587334124478</v>
+        <v>1.157573644069479</v>
       </c>
       <c r="O6">
-        <v>5.183754448296312</v>
+        <v>2.302523100832445</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8571636227548538</v>
+        <v>0.9376282849243864</v>
       </c>
       <c r="C7">
-        <v>0.1087106073412869</v>
+        <v>0.08706279918543203</v>
       </c>
       <c r="D7">
-        <v>0.1184556350456418</v>
+        <v>0.07145787899004574</v>
       </c>
       <c r="E7">
-        <v>0.1323980267362312</v>
+        <v>0.05524423172775172</v>
       </c>
       <c r="F7">
-        <v>1.951580331961061</v>
+        <v>0.8789015784089642</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1777876483517176</v>
+        <v>0.06851876403864487</v>
       </c>
       <c r="K7">
-        <v>0.4235094087986226</v>
+        <v>0.7358841246709744</v>
       </c>
       <c r="L7">
-        <v>0.2570900720931206</v>
+        <v>0.161107817936788</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.286212572078821</v>
+        <v>1.143151927433675</v>
       </c>
       <c r="O7">
-        <v>5.174936621062415</v>
+        <v>2.306252723036835</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.904000713041512</v>
+        <v>1.120964898894357</v>
       </c>
       <c r="C8">
-        <v>0.1100131246874128</v>
+        <v>0.09074058008311425</v>
       </c>
       <c r="D8">
-        <v>0.1206250292396334</v>
+        <v>0.08201249276292799</v>
       </c>
       <c r="E8">
-        <v>0.1322785252058924</v>
+        <v>0.05802898118311006</v>
       </c>
       <c r="F8">
-        <v>1.942166452186058</v>
+        <v>0.9007768800051394</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1765307776214335</v>
+        <v>0.06788104637788095</v>
       </c>
       <c r="K8">
-        <v>0.4665499697962332</v>
+        <v>0.8905867054693601</v>
       </c>
       <c r="L8">
-        <v>0.2618319617224785</v>
+        <v>0.1847465629967289</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.259489058073968</v>
+        <v>1.082090242013645</v>
       </c>
       <c r="O8">
-        <v>5.140781823717219</v>
+        <v>2.330631769470727</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9985964627635724</v>
+        <v>1.485120044347269</v>
       </c>
       <c r="C9">
-        <v>0.1125334978329988</v>
+        <v>0.09797452823580954</v>
       </c>
       <c r="D9">
-        <v>0.1252209016906392</v>
+        <v>0.1031462623385409</v>
       </c>
       <c r="E9">
-        <v>0.1323904215224907</v>
+        <v>0.06397669614287338</v>
       </c>
       <c r="F9">
-        <v>1.930096956476262</v>
+        <v>0.954865962248995</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1744829630841593</v>
+        <v>0.06725102045145803</v>
       </c>
       <c r="K9">
-        <v>0.5520164383819974</v>
+        <v>1.196212625520417</v>
       </c>
       <c r="L9">
-        <v>0.271933434149048</v>
+        <v>0.2323017536147205</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.212136269059181</v>
+        <v>0.9720070442819884</v>
       </c>
       <c r="O9">
-        <v>5.090868847179252</v>
+        <v>2.40923160702738</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.06974152430513</v>
+        <v>1.756502550573202</v>
       </c>
       <c r="C10">
-        <v>0.1143639177496993</v>
+        <v>0.1033171957805763</v>
       </c>
       <c r="D10">
-        <v>0.1288028934697252</v>
+        <v>0.1189929398183267</v>
       </c>
       <c r="E10">
-        <v>0.1326821564595591</v>
+        <v>0.06867669186514291</v>
       </c>
       <c r="F10">
-        <v>1.925113754239973</v>
+        <v>1.002294101104411</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1732313271048405</v>
+        <v>0.06719641879484683</v>
       </c>
       <c r="K10">
-        <v>0.6154363994872654</v>
+        <v>1.422914198052695</v>
       </c>
       <c r="L10">
-        <v>0.2798391457279337</v>
+        <v>0.2681317813797506</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.180420048271301</v>
+        <v>0.8974026230107039</v>
       </c>
       <c r="O10">
-        <v>5.064577286381649</v>
+        <v>2.48808844036364</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.102458693753107</v>
+        <v>1.881036113320533</v>
       </c>
       <c r="C11">
-        <v>0.1151918697636631</v>
+        <v>0.1057573498270727</v>
       </c>
       <c r="D11">
-        <v>0.1304764475679718</v>
+        <v>0.1262841428429766</v>
       </c>
       <c r="E11">
-        <v>0.1328600511805718</v>
+        <v>0.07089441526273532</v>
       </c>
       <c r="F11">
-        <v>1.923687794362806</v>
+        <v>1.025744461040503</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1727165747196011</v>
+        <v>0.06726729548410404</v>
       </c>
       <c r="K11">
-        <v>0.6444200335887729</v>
+        <v>1.526702324942562</v>
       </c>
       <c r="L11">
-        <v>0.2835397588262794</v>
+        <v>0.2846632294575357</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.166657716816241</v>
+        <v>0.8649163884345379</v>
       </c>
       <c r="O11">
-        <v>5.054865695375867</v>
+        <v>2.529098676193826</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.114897916969738</v>
+        <v>1.928370058057396</v>
       </c>
       <c r="C12">
-        <v>0.1155047009853192</v>
+        <v>0.1066830903168139</v>
       </c>
       <c r="D12">
-        <v>0.1311164599157166</v>
+        <v>0.1290580843959219</v>
       </c>
       <c r="E12">
-        <v>0.1329338835726332</v>
+        <v>0.07174635359813664</v>
       </c>
       <c r="F12">
-        <v>1.923268521099914</v>
+        <v>1.034912265026605</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1725294849773746</v>
+        <v>0.06730852618449745</v>
       </c>
       <c r="K12">
-        <v>0.6554141001142</v>
+        <v>1.566115422319967</v>
       </c>
       <c r="L12">
-        <v>0.2849559697561546</v>
+        <v>0.2909599496983191</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.161541927891806</v>
+        <v>0.8528317366296374</v>
       </c>
       <c r="O12">
-        <v>5.051511087788811</v>
+        <v>2.545416168253325</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.112216699417075</v>
+        <v>1.918167687327269</v>
       </c>
       <c r="C13">
-        <v>0.1154373584393582</v>
+        <v>0.1064836344592734</v>
       </c>
       <c r="D13">
-        <v>0.1309783438316288</v>
+        <v>0.1284600741370667</v>
       </c>
       <c r="E13">
-        <v>0.1329176952743474</v>
+        <v>0.07156232249730365</v>
       </c>
       <c r="F13">
-        <v>1.923353454085117</v>
+        <v>1.032924720862411</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1725694299009675</v>
+        <v>0.06729899594346023</v>
       </c>
       <c r="K13">
-        <v>0.6530455140275251</v>
+        <v>1.557621915531939</v>
       </c>
       <c r="L13">
-        <v>0.2846503040648685</v>
+        <v>0.2896021558970858</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.162639447867365</v>
+        <v>0.8554245834434013</v>
       </c>
       <c r="O13">
-        <v>5.052219204819892</v>
+        <v>2.541866051744307</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.103481079871159</v>
+        <v>1.884926660283298</v>
       </c>
       <c r="C14">
-        <v>0.1152176206345885</v>
+        <v>0.1058334749952792</v>
       </c>
       <c r="D14">
-        <v>0.1305289764119522</v>
+        <v>0.1265120913984532</v>
       </c>
       <c r="E14">
-        <v>0.1328659959672436</v>
+        <v>0.07096425751305446</v>
       </c>
       <c r="F14">
-        <v>1.923650882597514</v>
+        <v>1.026492829153526</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1727010258002331</v>
+        <v>0.06727039540070123</v>
       </c>
       <c r="K14">
-        <v>0.6453241529427203</v>
+        <v>1.529942549286005</v>
       </c>
       <c r="L14">
-        <v>0.283655974064601</v>
+        <v>0.2851805112314878</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.166234919632505</v>
+        <v>0.8639177740282227</v>
       </c>
       <c r="O14">
-        <v>5.054583239344538</v>
+        <v>2.530425045140618</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.098136740470835</v>
+        <v>1.864589094813056</v>
       </c>
       <c r="C15">
-        <v>0.1150829336747563</v>
+        <v>0.1054354653930361</v>
       </c>
       <c r="D15">
-        <v>0.1302545409574094</v>
+        <v>0.1253206111230014</v>
       </c>
       <c r="E15">
-        <v>0.1328351700292636</v>
+        <v>0.07059952656505075</v>
       </c>
       <c r="F15">
-        <v>1.923848779300059</v>
+        <v>1.022591126962055</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1727826519830771</v>
+        <v>0.06725477020724213</v>
       </c>
       <c r="K15">
-        <v>0.6405969994779639</v>
+        <v>1.513003054300867</v>
       </c>
       <c r="L15">
-        <v>0.2830488509347759</v>
+        <v>0.2824769947335852</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.168449713990833</v>
+        <v>0.8691486411841476</v>
       </c>
       <c r="O15">
-        <v>5.056073326548159</v>
+        <v>2.523521202882478</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.067610412936375</v>
+        <v>1.748387443441374</v>
       </c>
       <c r="C16">
-        <v>0.1143097126997148</v>
+        <v>0.1031579476196995</v>
       </c>
       <c r="D16">
-        <v>0.1286944042891918</v>
+        <v>0.1185181913289171</v>
       </c>
       <c r="E16">
-        <v>0.1326714372757856</v>
+        <v>0.06853341862661466</v>
       </c>
       <c r="F16">
-        <v>1.925223847051058</v>
+        <v>1.000800810808158</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1732660649201989</v>
+        <v>0.06719376561993684</v>
       </c>
       <c r="K16">
-        <v>0.6135448861811312</v>
+        <v>1.416146016484021</v>
       </c>
       <c r="L16">
-        <v>0.2795993894300608</v>
+        <v>0.2670563559583599</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.181332841567282</v>
+        <v>0.8995555949024423</v>
       </c>
       <c r="O16">
-        <v>5.065257176133031</v>
+        <v>2.485515826851497</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.048973316645146</v>
+        <v>1.677392293548394</v>
       </c>
       <c r="C17">
-        <v>0.1138341460382009</v>
+        <v>0.1017634697779215</v>
       </c>
       <c r="D17">
-        <v>0.1277485559645157</v>
+        <v>0.1143669844168187</v>
       </c>
       <c r="E17">
-        <v>0.1325825438171222</v>
+        <v>0.06728680349386806</v>
       </c>
       <c r="F17">
-        <v>1.926282632845414</v>
+        <v>0.9879258719351043</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1735765998907759</v>
+        <v>0.06718129047315458</v>
       </c>
       <c r="K17">
-        <v>0.5969830655719761</v>
+        <v>1.356907424084824</v>
       </c>
       <c r="L17">
-        <v>0.2775098730280803</v>
+        <v>0.2576579950378886</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.189406684822844</v>
+        <v>0.9185869188151665</v>
       </c>
       <c r="O17">
-        <v>5.071466812294716</v>
+        <v>2.463550547662322</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.038287019046777</v>
+        <v>1.6366581392748</v>
       </c>
       <c r="C18">
-        <v>0.1135601699437743</v>
+        <v>0.1009623006731744</v>
       </c>
       <c r="D18">
-        <v>0.1272086827536896</v>
+        <v>0.1119870149712341</v>
       </c>
       <c r="E18">
-        <v>0.1325356692679698</v>
+        <v>0.06657723952427119</v>
       </c>
       <c r="F18">
-        <v>1.926970783114811</v>
+        <v>0.9806958908469454</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1737603539015247</v>
+        <v>0.0671830844380743</v>
       </c>
       <c r="K18">
-        <v>0.5874697539454985</v>
+        <v>1.322896105735452</v>
       </c>
       <c r="L18">
-        <v>0.2763178598222282</v>
+        <v>0.2522739553052276</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.194113188930384</v>
+        <v>0.9296693373863665</v>
       </c>
       <c r="O18">
-        <v>5.075250099670086</v>
+        <v>2.451397183249071</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.034674560621227</v>
+        <v>1.622882894323396</v>
       </c>
       <c r="C19">
-        <v>0.1134673308606651</v>
+        <v>0.10069118388531</v>
       </c>
       <c r="D19">
-        <v>0.1270266063821595</v>
+        <v>0.1111824885524868</v>
       </c>
       <c r="E19">
-        <v>0.1325205299924548</v>
+        <v>0.06633825396454895</v>
       </c>
       <c r="F19">
-        <v>1.927217382201761</v>
+        <v>0.978277528264428</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1738234536614875</v>
+        <v>0.06718521385142395</v>
       </c>
       <c r="K19">
-        <v>0.584250894515975</v>
+        <v>1.311390496867745</v>
       </c>
       <c r="L19">
-        <v>0.2759159552434909</v>
+        <v>0.250454635179878</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.195717489279043</v>
+        <v>0.9334447818023612</v>
       </c>
       <c r="O19">
-        <v>5.076567421735035</v>
+        <v>2.447363345424634</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.050953830183204</v>
+        <v>1.684939316049679</v>
       </c>
       <c r="C20">
-        <v>0.1138848168735933</v>
+        <v>0.1019118192927522</v>
       </c>
       <c r="D20">
-        <v>0.1278488137177476</v>
+        <v>0.1148080835979215</v>
       </c>
       <c r="E20">
-        <v>0.132591566556421</v>
+        <v>0.06741873134863852</v>
       </c>
       <c r="F20">
-        <v>1.926161731614314</v>
+        <v>0.9892781568906344</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1735430108200298</v>
+        <v>0.06718168576069772</v>
       </c>
       <c r="K20">
-        <v>0.5987447990603698</v>
+        <v>1.363207033202201</v>
       </c>
       <c r="L20">
-        <v>0.2777312900413307</v>
+        <v>0.2586562032964679</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.188540727086451</v>
+        <v>0.9165468562563444</v>
       </c>
       <c r="O20">
-        <v>5.070783881746138</v>
+        <v>2.465838716265011</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.106045594144092</v>
+        <v>1.894685414956484</v>
       </c>
       <c r="C21">
-        <v>0.1152821819946013</v>
+        <v>0.106024393689502</v>
       </c>
       <c r="D21">
-        <v>0.130660796775274</v>
+        <v>0.1270839016691809</v>
       </c>
       <c r="E21">
-        <v>0.1328810060171293</v>
+        <v>0.07113958875378756</v>
       </c>
       <c r="F21">
-        <v>1.923560246414453</v>
+        <v>1.028374075063454</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.172662160383446</v>
+        <v>0.06727840030093546</v>
       </c>
       <c r="K21">
-        <v>0.6475916041456742</v>
+        <v>1.53806951180016</v>
       </c>
       <c r="L21">
-        <v>0.2839476303361721</v>
+        <v>0.2864782347809296</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.16517624490422</v>
+        <v>0.8614171539961823</v>
       </c>
       <c r="O21">
-        <v>5.053880103055377</v>
+        <v>2.533763758782186</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.142341966614083</v>
+        <v>2.032801756860636</v>
       </c>
       <c r="C22">
-        <v>0.1161913742745426</v>
+        <v>0.10872231088414</v>
       </c>
       <c r="D22">
-        <v>0.1325351277155562</v>
+        <v>0.1351827154427383</v>
       </c>
       <c r="E22">
-        <v>0.1331078553315663</v>
+        <v>0.07364245942675751</v>
       </c>
       <c r="F22">
-        <v>1.922563496479924</v>
+        <v>1.055611458988935</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1721321381179273</v>
+        <v>0.0674258122797653</v>
       </c>
       <c r="K22">
-        <v>0.679623905565137</v>
+        <v>1.653006154864585</v>
       </c>
       <c r="L22">
-        <v>0.2880969787200769</v>
+        <v>0.3048766453628815</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.150464064510023</v>
+        <v>0.826656907521353</v>
       </c>
       <c r="O22">
-        <v>5.044714795463619</v>
+        <v>2.58277374292615</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.122943575962438</v>
+        <v>1.958984623068773</v>
       </c>
       <c r="C23">
-        <v>0.1157064993367811</v>
+        <v>0.1072813483158228</v>
       </c>
       <c r="D23">
-        <v>0.1315314406662083</v>
+        <v>0.1308529163639633</v>
       </c>
       <c r="E23">
-        <v>0.1329833433204222</v>
+        <v>0.07229989171234408</v>
       </c>
       <c r="F23">
-        <v>1.923031184679459</v>
+        <v>1.04091382204831</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1724108489036347</v>
+        <v>0.06733921326503634</v>
       </c>
       <c r="K23">
-        <v>0.6625179763570372</v>
+        <v>1.591596951626087</v>
       </c>
       <c r="L23">
-        <v>0.2858745095444846</v>
+        <v>0.2950362605772199</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.158265185841087</v>
+        <v>0.8450899533051812</v>
       </c>
       <c r="O23">
-        <v>5.049434388540476</v>
+        <v>2.556176689022323</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.050058351434501</v>
+        <v>1.681527053595659</v>
       </c>
       <c r="C24">
-        <v>0.11386191035335</v>
+        <v>0.101844748833912</v>
       </c>
       <c r="D24">
-        <v>0.1278034750122004</v>
+        <v>0.1146086421342005</v>
       </c>
       <c r="E24">
-        <v>0.1325874741933752</v>
+        <v>0.06735906460270158</v>
       </c>
       <c r="F24">
-        <v>1.926216143593393</v>
+        <v>0.9886662544927844</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1735581801672552</v>
+        <v>0.06718147917086625</v>
       </c>
       <c r="K24">
-        <v>0.5979482934514806</v>
+        <v>1.360358838640479</v>
       </c>
       <c r="L24">
-        <v>0.2776311585020892</v>
+        <v>0.2582048537709056</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.188932024902764</v>
+        <v>0.9174687298095563</v>
       </c>
       <c r="O24">
-        <v>5.071091970246812</v>
+        <v>2.464802760112519</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9727146670326192</v>
+        <v>1.386009617416789</v>
       </c>
       <c r="C25">
-        <v>0.1118553630851693</v>
+        <v>0.09601378270750871</v>
       </c>
       <c r="D25">
-        <v>0.1239413156595432</v>
+        <v>0.09737695260572821</v>
       </c>
       <c r="E25">
-        <v>0.1323232439733708</v>
+        <v>0.06231222556616345</v>
       </c>
       <c r="F25">
-        <v>1.932679098916573</v>
+        <v>0.9389489515586789</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1749924496055399</v>
+        <v>0.06735203600018735</v>
       </c>
       <c r="K25">
-        <v>0.5287837424394013</v>
+        <v>1.113213423162478</v>
       </c>
       <c r="L25">
-        <v>0.269115322535896</v>
+        <v>0.2192924523118762</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.224406232196659</v>
+        <v>1.000715087436651</v>
       </c>
       <c r="O25">
-        <v>5.102547192352517</v>
+        <v>2.384438846531197</v>
       </c>
     </row>
   </sheetData>
